--- a/Collaborations/PFAS/Daten/220613_ColumnExperiments_Data_N1.xlsx
+++ b/Collaborations/PFAS/Daten/220613_ColumnExperiments_Data_N1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - bwedu\6. Semester\BA\Collaborations\PFAS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1666DAA-6681-4A90-83FC-4B88B22EDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CACBA-6AC6-4D00-9CD8-5A5F53523C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="479" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="13200" tabRatio="479" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feststoffanalyse N-1" sheetId="31" r:id="rId1"/>
-    <sheet name="N1" sheetId="1" r:id="rId2"/>
-    <sheet name="N1_1_end" sheetId="9" r:id="rId3"/>
+    <sheet name="N1_1_end" sheetId="9" r:id="rId2"/>
+    <sheet name="N1" sheetId="1" r:id="rId3"/>
     <sheet name="N1_2_end" sheetId="10" r:id="rId4"/>
     <sheet name="N1_3_end" sheetId="14" r:id="rId5"/>
     <sheet name="N1_4_end" sheetId="15" r:id="rId6"/>
@@ -2087,14 +2087,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2103,15 +2112,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2840,6 +2840,439 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Differenz Feststoffanalys Eluat'!$AQ$114:$AQ$122</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6:2 monoPAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8:2 monoPAP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10:2 monoPAP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>monoSAmPAP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:2 diPAP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6:2/8:2 diPAP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8:2 diPAP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10:2 diPAP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>diSAmPAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Differenz Feststoffanalys Eluat'!$AS$126:$AS$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>26.036544406591933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.846706341526168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.975257299134476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8508754851813318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60526589560300792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-44.445782107842113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60608821449462624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.428433770367398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-117.43614642340751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B69D-4F80-88FC-25A7E7BF4B6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="744383375"/>
+        <c:axId val="744383791"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Differenz Feststoffanalys Eluat'!$AQ$114:$AQ$122</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>6:2 monoPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8:2 monoPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10:2 monoPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>monoSAmPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6:2 diPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6:2/8:2 diPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8:2 diPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10:2 diPAP</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>diSAmPAP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Differenz Feststoffanalys Eluat'!$AT$114:$AT$122</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>-0.3403469857070841</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.26588283579950711</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.44326310694899546</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.37185332415408673</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.8816556339989885E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.37879927932819984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-3.8851808621450401E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-0.11171539834009482</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.322479120613476</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B69D-4F80-88FC-25A7E7BF4B6E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744383375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744383791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744383791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>m [µg/kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744383375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5138,6 +5571,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22948061663726943"/>
+          <c:y val="2.0885169391879781E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5575,6 +6016,745 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="de-DE" sz="3200"/>
+              <a:t>Breakthrough curve of PFOS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35921598907908753"/>
+          <c:y val="5.9796047183632815E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12341535498023379"/>
+          <c:y val="9.0653940984649642E-2"/>
+          <c:w val="0.84008139143369254"/>
+          <c:h val="0.69801097590073968"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N1_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="88900">
+                <a:solidFill>
+                  <a:srgbClr val="0000CC"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N1'!$B$46:$U$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.8993055555547471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7069444444423425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999970896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.729166666664241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.897916666668607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.711805555554747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.738888888889051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.697916666664241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.713888888887595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.698611111110949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.723611111112405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.747222222220444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.720833333332848</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.719444444446708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.640972222223354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.714583333334303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.680555555554747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82.711805555554747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.970833333332848</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>141.76249999999709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N1'!$B$31:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-27D2-4BF1-8F81-0CDD0CDD57B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94400735"/>
+        <c:axId val="94399487"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>N1_3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="88900">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'N1'!$B$157:$J$157</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>4.9333333333343035</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.129861111112405</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19.931944444440887</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33.957638888889051</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>48.878472222218988</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>61.949305555557657</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>107.90833333333285</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>146.9194444444438</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>159.17291666666279</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'N1'!$B$142:$J$142</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>26000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="0">
+                        <c:v>650</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>110</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-27D2-4BF1-8F81-0CDD0CDD57B9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94400735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="3600"/>
+                  <a:t>t [d]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48210929006695258"/>
+              <c:y val="0.88416433454751187"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94399487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94399487"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="3600"/>
+                  <a:t>c [ng/L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94400735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85741801488138103"/>
+          <c:y val="0.10152207668870765"/>
+          <c:w val="9.4217316139511384E-2"/>
+          <c:h val="0.10402305078800704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="de-DE"/>
               <a:t>N1 Massenbilanz</a:t>
             </a:r>
@@ -5927,7 +7107,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -6258,7 +7438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -6674,7 +7854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -7005,439 +8185,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Differenz Feststoffanalys Eluat'!$AQ$114:$AQ$122</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6:2 monoPAP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8:2 monoPAP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10:2 monoPAP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>monoSAmPAP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6:2 diPAP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6:2/8:2 diPAP</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8:2 diPAP</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10:2 diPAP</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>diSAmPAP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Differenz Feststoffanalys Eluat'!$AS$126:$AS$134</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>26.036544406591933</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.846706341526168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.975257299134476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.8508754851813318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60526589560300792</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-44.445782107842113</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60608821449462624</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.428433770367398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-117.43614642340751</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B69D-4F80-88FC-25A7E7BF4B6E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="744383375"/>
-        <c:axId val="744383791"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Differenz Feststoffanalys Eluat'!$AQ$114:$AQ$122</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>6:2 monoPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8:2 monoPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10:2 monoPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>monoSAmPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6:2 diPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6:2/8:2 diPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>8:2 diPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>10:2 diPAP</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>diSAmPAP</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Differenz Feststoffanalys Eluat'!$AT$114:$AT$122</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>-0.3403469857070841</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-0.26588283579950711</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-0.44326310694899546</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.37185332415408673</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-1.8816556339989885E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.37879927932819984</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-3.8851808621450401E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-0.11171539834009482</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.322479120613476</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-B69D-4F80-88FC-25A7E7BF4B6E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="744383375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="744383791"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="744383791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1400"/>
-                  <a:t>Δ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1400"/>
-                  <a:t>m [µg/kg]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="744383375"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7479,6 +8226,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8355,6 +9142,509 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10393,7 +11683,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10420,8 +11710,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10522,7 +11812,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10554,10 +11844,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10597,22 +11887,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10717,8 +12008,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10850,19 +12141,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10876,6 +12168,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12949,16 +14252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>688321</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>525036</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>464202</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60514</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>178452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12985,16 +14288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156880</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>290551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>441792</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>168086</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>482613</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13021,16 +14324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>583504</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>637932</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>43540</xdr:rowOff>
+      <xdr:rowOff>16325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190459</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>326531</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>35975</xdr:rowOff>
+      <xdr:rowOff>8760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13050,6 +14353,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DF405B-B398-A36E-DD5C-DED57B7E5131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13548,35 +14887,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="135"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="137" t="s">
         <v>208</v>
       </c>
@@ -13584,7 +14923,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="220" t="s">
         <v>6</v>
       </c>
@@ -13596,7 +14935,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
         <v>7</v>
       </c>
@@ -13608,7 +14947,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="220" t="s">
         <v>8</v>
       </c>
@@ -13616,7 +14955,7 @@
         <v>12.785714285714286</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="220" t="s">
         <v>9</v>
       </c>
@@ -13624,7 +14963,7 @@
         <v>8.6142857142857157</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="220" t="s">
         <v>10</v>
       </c>
@@ -13632,7 +14971,7 @@
         <v>45.285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="220" t="s">
         <v>11</v>
       </c>
@@ -13640,7 +14979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="220" t="s">
         <v>12</v>
       </c>
@@ -13648,7 +14987,7 @@
         <v>217.14285714285714</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="220" t="s">
         <v>13</v>
       </c>
@@ -13656,7 +14995,7 @@
         <v>43.285714285714285</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="220" t="s">
         <v>14</v>
       </c>
@@ -13664,7 +15003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="220" t="s">
         <v>15</v>
       </c>
@@ -13672,7 +15011,7 @@
         <v>17.166666666666668</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="220" t="s">
         <v>16</v>
       </c>
@@ -13680,7 +15019,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="220" t="s">
         <v>17</v>
       </c>
@@ -13688,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="220" t="s">
         <v>18</v>
       </c>
@@ -13696,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="220" t="s">
         <v>19</v>
       </c>
@@ -13704,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="220" t="s">
         <v>20</v>
       </c>
@@ -13712,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="220" t="s">
         <v>21</v>
       </c>
@@ -13720,7 +15059,7 @@
         <v>185.71428571428572</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
         <v>22</v>
       </c>
@@ -13728,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
         <v>23</v>
       </c>
@@ -13736,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="222" t="s">
         <v>24</v>
       </c>
@@ -13744,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="222" t="s">
         <v>25</v>
       </c>
@@ -13752,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="222" t="s">
         <v>26</v>
       </c>
@@ -13760,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="223" t="s">
         <v>27</v>
       </c>
@@ -13768,7 +15107,7 @@
         <v>14.957142857142857</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="223" t="s">
         <v>28</v>
       </c>
@@ -13776,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="223" t="s">
         <v>29</v>
       </c>
@@ -13784,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="223" t="s">
         <v>30</v>
       </c>
@@ -13792,7 +15131,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="223" t="s">
         <v>31</v>
       </c>
@@ -13800,7 +15139,7 @@
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="223" t="s">
         <v>32</v>
       </c>
@@ -13808,7 +15147,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="222" t="s">
         <v>209</v>
       </c>
@@ -13816,7 +15155,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="222" t="s">
         <v>210</v>
       </c>
@@ -13824,7 +15163,7 @@
         <v>82.166666666666671</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="222" t="s">
         <v>211</v>
       </c>
@@ -13832,7 +15171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="222" t="s">
         <v>212</v>
       </c>
@@ -13840,7 +15179,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="222" t="s">
         <v>213</v>
       </c>
@@ -13848,7 +15187,7 @@
         <v>32.166666666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="222" t="s">
         <v>214</v>
       </c>
@@ -13856,7 +15195,7 @@
         <v>117.33333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="222" t="s">
         <v>215</v>
       </c>
@@ -13864,7 +15203,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="222" t="s">
         <v>216</v>
       </c>
@@ -13872,7 +15211,7 @@
         <v>218.66666666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="222" t="s">
         <v>217</v>
       </c>
@@ -13880,7 +15219,7 @@
         <v>364.16666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="135" t="s">
         <v>33</v>
       </c>
@@ -13895,33 +15234,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="137" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="225">
+        <v>7.6133541063877139</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="220" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="96">
+        <v>1.800222568439795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="96">
+        <v>3.0002225684397952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="96">
+        <v>2.2231693745826844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="96">
+        <v>20.977743156020473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="226">
+        <v>10.668150456265302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="226">
+        <v>7.9017805475183609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="220" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="220" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="96">
+        <v>1.8677053193857109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="222" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="222" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="222" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="223" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="96">
+        <v>1.4345203650122413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="223" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="223" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="223" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="222" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="50">
+        <v>14.641442243489873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="222" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="96">
+        <v>89.83701313153793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="222" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="96">
+        <v>94.699554863120412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="222" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="96">
+        <v>133.84620520810148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="222" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="96">
+        <v>3.2699310037836629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="222" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="96">
+        <v>31.462141108390831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="96">
+        <v>73.481749387936787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="222" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="96">
+        <v>147.26285332739818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="96">
+        <v>206.47429334520362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="96">
+        <v>232.96884041842861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="50">
+        <f>SUM(B9:B44)</f>
+        <v>1085.4308924994434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="50">
+        <v>1071.726240819052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X90" sqref="X90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="8" width="14" customWidth="1"/>
-    <col min="9" max="11" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" customWidth="1"/>
-    <col min="15" max="15" width="14.3984375" customWidth="1"/>
-    <col min="16" max="17" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1328125" customWidth="1"/>
-    <col min="19" max="19" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="12.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13932,7 +15640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>706</v>
       </c>
@@ -13943,15 +15651,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="M4" s="37"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>61</v>
       </c>
@@ -13964,7 +15672,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>75</v>
       </c>
@@ -13985,7 +15693,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>0.4</v>
       </c>
@@ -14009,7 +15717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>70</v>
@@ -14028,7 +15736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>34</v>
@@ -14096,7 +15804,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>35</v>
@@ -14164,7 +15872,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
         <v>36</v>
@@ -14232,7 +15940,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -14339,7 +16047,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:42" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -14454,7 +16162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -14528,7 +16236,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -14602,7 +16310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>6</v>
       </c>
@@ -14711,7 +16419,7 @@
         <v>66.506803754704194</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>7</v>
       </c>
@@ -14837,7 +16545,7 @@
         <v>94.380301506289499</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>8</v>
       </c>
@@ -14963,7 +16671,7 @@
         <v>62.119392721906564</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>9</v>
       </c>
@@ -15089,7 +16797,7 @@
         <v>56.283546664379344</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>10</v>
       </c>
@@ -15217,7 +16925,7 @@
         <v>-7.6913575632367497</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>11</v>
       </c>
@@ -15343,7 +17051,7 @@
         <v>-32.573242690377512</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>12</v>
       </c>
@@ -15471,7 +17179,7 @@
         <v>-26.716605164642289</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>13</v>
       </c>
@@ -15599,7 +17307,7 @@
         <v>-58.794794724137454</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>14</v>
       </c>
@@ -15727,7 +17435,7 @@
         <v>-89.569651131484278</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>15</v>
       </c>
@@ -15824,7 +17532,7 @@
         <v>-8.6091974182060973</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>16</v>
       </c>
@@ -15921,7 +17629,7 @@
         <v>-6.376736901847317</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -16013,7 +17721,7 @@
       <c r="AF27" s="50"/>
       <c r="AG27" s="50"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -16105,7 +17813,7 @@
       <c r="AF28" s="50"/>
       <c r="AG28" s="50"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>19</v>
       </c>
@@ -16197,7 +17905,7 @@
       <c r="AF29" s="50"/>
       <c r="AG29" s="50"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -16289,7 +17997,7 @@
       <c r="AF30" s="50"/>
       <c r="AG30" s="50"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>21</v>
       </c>
@@ -16417,7 +18125,7 @@
         <v>-35.424558482872015</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -16509,7 +18217,7 @@
       <c r="AF32" s="50"/>
       <c r="AG32" s="50"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -16601,7 +18309,7 @@
       <c r="AF33" s="50"/>
       <c r="AG33" s="50"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
@@ -16693,7 +18401,7 @@
       <c r="AF34" s="50"/>
       <c r="AG34" s="50"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -16785,7 +18493,7 @@
       <c r="AF35" s="50"/>
       <c r="AG35" s="50"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -16877,7 +18585,7 @@
       <c r="AF36" s="50"/>
       <c r="AG36" s="50"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
@@ -17005,7 +18713,7 @@
         <v>-54.201115033678057</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
@@ -17097,7 +18805,7 @@
       <c r="AF38" s="50"/>
       <c r="AG38" s="50"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>29</v>
       </c>
@@ -17189,7 +18897,7 @@
       <c r="AF39" s="50"/>
       <c r="AG39" s="50"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -17293,7 +19001,7 @@
         <v>83.387994877661086</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>31</v>
       </c>
@@ -17397,7 +19105,7 @@
         <v>68.949250988748844</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>32</v>
       </c>
@@ -17506,7 +19214,7 @@
         <v>65.426809048320337</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -17644,7 +19352,7 @@
         <v>-21.206966893734801</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>129</v>
       </c>
@@ -17745,7 +19453,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>62</v>
       </c>
@@ -17813,7 +19521,7 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>63</v>
       </c>
@@ -17898,7 +19606,7 @@
         <v>141.76249999999709</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>68</v>
       </c>
@@ -17964,7 +19672,7 @@
         <v>85.941999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>69</v>
       </c>
@@ -18049,7 +19757,7 @@
         <v>285.66199999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>131</v>
       </c>
@@ -18137,7 +19845,7 @@
       <c r="W49" s="25"/>
       <c r="X49" s="25"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>132</v>
       </c>
@@ -18225,7 +19933,7 @@
       <c r="W50" s="25"/>
       <c r="X50" s="25"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>74</v>
       </c>
@@ -18293,7 +20001,7 @@
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>76</v>
       </c>
@@ -18381,7 +20089,7 @@
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -18407,7 +20115,7 @@
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>77</v>
       </c>
@@ -18495,7 +20203,7 @@
       <c r="W54" s="25"/>
       <c r="X54" s="25"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -18521,7 +20229,7 @@
       <c r="W55" s="25"/>
       <c r="X55" s="25"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>225</v>
       </c>
@@ -18609,7 +20317,7 @@
       <c r="W56" s="25"/>
       <c r="X56" s="25"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>87</v>
       </c>
@@ -18674,7 +20382,7 @@
       <c r="W57" s="25"/>
       <c r="X57" s="25"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="100" t="s">
         <v>241</v>
       </c>
@@ -18762,7 +20470,7 @@
       <c r="W58" s="25"/>
       <c r="X58" s="25"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="100" t="s">
         <v>242</v>
       </c>
@@ -18850,7 +20558,7 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="129"/>
       <c r="B60" s="130"/>
       <c r="C60" s="130"/>
@@ -18873,7 +20581,7 @@
       <c r="T60" s="130"/>
       <c r="U60" s="130"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="129"/>
       <c r="B61" s="131"/>
       <c r="C61" s="131"/>
@@ -18896,7 +20604,7 @@
       <c r="T61" s="131"/>
       <c r="U61" s="131"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
@@ -18999,7 +20707,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
         <v>75</v>
       </c>
@@ -19020,7 +20728,7 @@
       </c>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <v>0.4</v>
       </c>
@@ -19045,7 +20753,7 @@
       </c>
       <c r="O64" s="25"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
         <v>70</v>
@@ -19064,7 +20772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="45" t="s">
         <v>154</v>
@@ -19097,7 +20805,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="46" t="s">
         <v>71</v>
@@ -19130,7 +20838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="45" t="s">
         <v>36</v>
@@ -19163,7 +20871,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
@@ -19198,7 +20906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>3</v>
       </c>
@@ -19243,7 +20951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -19269,7 +20977,7 @@
       <c r="K71" s="9"/>
       <c r="AD71" s="43"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -19295,7 +21003,7 @@
       <c r="K72" s="9"/>
       <c r="AD72" s="43"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
@@ -19337,7 +21045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -19382,7 +21090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -19427,7 +21135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
@@ -19472,7 +21180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
@@ -19517,7 +21225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
@@ -19560,7 +21268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>12</v>
       </c>
@@ -19605,7 +21313,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>13</v>
       </c>
@@ -19650,7 +21358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>14</v>
       </c>
@@ -19695,7 +21403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>15</v>
       </c>
@@ -19735,7 +21443,7 @@
       </c>
       <c r="AD82" s="44"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>16</v>
       </c>
@@ -19775,7 +21483,7 @@
       </c>
       <c r="AD83" s="44"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -19817,7 +21525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>18</v>
       </c>
@@ -19859,7 +21567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>19</v>
       </c>
@@ -19901,7 +21609,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>20</v>
       </c>
@@ -19943,7 +21651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>21</v>
       </c>
@@ -19988,7 +21696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>22</v>
       </c>
@@ -20028,7 +21736,7 @@
       </c>
       <c r="AD89" s="44"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
@@ -20070,7 +21778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>24</v>
       </c>
@@ -20110,7 +21818,7 @@
       </c>
       <c r="AD91" s="36"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>25</v>
       </c>
@@ -20150,7 +21858,7 @@
       </c>
       <c r="AD92" s="36"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>26</v>
       </c>
@@ -20190,7 +21898,7 @@
       </c>
       <c r="AD93" s="36"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>27</v>
       </c>
@@ -20233,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>28</v>
       </c>
@@ -20273,7 +21981,7 @@
       </c>
       <c r="AD95" s="36"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>29</v>
       </c>
@@ -20313,7 +22021,7 @@
       </c>
       <c r="AD96" s="36"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>30</v>
       </c>
@@ -20353,7 +22061,7 @@
       </c>
       <c r="AD97" s="36"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>31</v>
       </c>
@@ -20393,7 +22101,7 @@
       </c>
       <c r="AD98" s="36"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>32</v>
       </c>
@@ -20433,7 +22141,7 @@
       </c>
       <c r="AD99" s="36"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>33</v>
       </c>
@@ -20480,7 +22188,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>129</v>
       </c>
@@ -20529,7 +22237,7 @@
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>62</v>
       </c>
@@ -20564,7 +22272,7 @@
         <v>43907.586805555555</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>63</v>
       </c>
@@ -20611,7 +22319,7 @@
       <c r="L103" s="28"/>
       <c r="M103" s="30"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>68</v>
       </c>
@@ -20650,7 +22358,7 @@
       <c r="N104" s="28"/>
       <c r="O104" s="27"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>69</v>
       </c>
@@ -20708,7 +22416,7 @@
       <c r="W105" s="28"/>
       <c r="X105" s="28"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>131</v>
       </c>
@@ -20757,7 +22465,7 @@
       <c r="N106" s="28"/>
       <c r="O106" s="27"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>132</v>
       </c>
@@ -20806,7 +22514,7 @@
       <c r="N107" s="25"/>
       <c r="O107" s="25"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>74</v>
       </c>
@@ -20843,7 +22551,7 @@
       <c r="N108" s="25"/>
       <c r="O108" s="27"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>76</v>
       </c>
@@ -20892,7 +22600,7 @@
       <c r="N109" s="28"/>
       <c r="O109" s="27"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>130</v>
       </c>
@@ -20941,7 +22649,7 @@
       <c r="N110" s="28"/>
       <c r="O110" s="27"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>77</v>
       </c>
@@ -20990,7 +22698,7 @@
       <c r="N111" s="28"/>
       <c r="O111" s="27"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>128</v>
       </c>
@@ -21039,7 +22747,7 @@
       <c r="N112" s="28"/>
       <c r="O112" s="27"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>225</v>
       </c>
@@ -21088,7 +22796,7 @@
       <c r="N113" s="28"/>
       <c r="O113" s="27"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>87</v>
       </c>
@@ -21123,7 +22831,7 @@
       <c r="N114" s="28"/>
       <c r="O114" s="27"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C115" s="134"/>
       <c r="D115" s="134"/>
       <c r="E115" s="134"/>
@@ -21138,7 +22846,7 @@
       <c r="N115" s="28"/>
       <c r="O115" s="13"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>61</v>
       </c>
@@ -21157,7 +22865,7 @@
       <c r="N116" s="28"/>
       <c r="O116" s="27"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>75</v>
       </c>
@@ -21184,7 +22892,7 @@
       <c r="N117" s="28"/>
       <c r="O117" s="13"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="35">
         <v>0.4</v>
       </c>
@@ -21214,7 +22922,7 @@
       <c r="N118" s="28"/>
       <c r="O118" s="27"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="20" t="s">
         <v>70</v>
@@ -21239,7 +22947,7 @@
       <c r="N119" s="28"/>
       <c r="O119" s="27"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="45" t="s">
         <v>161</v>
@@ -21269,7 +22977,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="46" t="s">
         <v>72</v>
@@ -21299,7 +23007,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="45" t="s">
         <v>162</v>
@@ -21329,7 +23037,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>2</v>
       </c>
@@ -21361,7 +23069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:31" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>3</v>
       </c>
@@ -21403,7 +23111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
@@ -21424,7 +23132,7 @@
       <c r="J125" s="9"/>
       <c r="AD125" s="43"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
@@ -21445,7 +23153,7 @@
       <c r="J126" s="9"/>
       <c r="AD126" s="43"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>6</v>
       </c>
@@ -21484,7 +23192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>7</v>
       </c>
@@ -21526,7 +23234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>8</v>
       </c>
@@ -21568,7 +23276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>9</v>
       </c>
@@ -21610,7 +23318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>10</v>
       </c>
@@ -21652,7 +23360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>11</v>
       </c>
@@ -21692,7 +23400,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>12</v>
       </c>
@@ -21734,7 +23442,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>13</v>
       </c>
@@ -21776,7 +23484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>14</v>
       </c>
@@ -21818,7 +23526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>15</v>
       </c>
@@ -21855,7 +23563,7 @@
       </c>
       <c r="AD136" s="44"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>16</v>
       </c>
@@ -21892,7 +23600,7 @@
       </c>
       <c r="AD137" s="44"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>17</v>
       </c>
@@ -21931,7 +23639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>18</v>
       </c>
@@ -21970,7 +23678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>19</v>
       </c>
@@ -22009,7 +23717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>20</v>
       </c>
@@ -22048,7 +23756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>21</v>
       </c>
@@ -22090,7 +23798,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>22</v>
       </c>
@@ -22127,7 +23835,7 @@
       </c>
       <c r="AD143" s="44"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>23</v>
       </c>
@@ -22166,7 +23874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>24</v>
       </c>
@@ -22203,7 +23911,7 @@
       </c>
       <c r="AD145" s="44"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>25</v>
       </c>
@@ -22240,7 +23948,7 @@
       </c>
       <c r="AD146" s="36"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>26</v>
       </c>
@@ -22277,7 +23985,7 @@
       </c>
       <c r="AD147" s="36"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>27</v>
       </c>
@@ -22317,7 +24025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>28</v>
       </c>
@@ -22354,7 +24062,7 @@
       </c>
       <c r="AD149" s="36"/>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>29</v>
       </c>
@@ -22391,7 +24099,7 @@
       </c>
       <c r="AD150" s="36"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>30</v>
       </c>
@@ -22428,7 +24136,7 @@
       </c>
       <c r="AD151" s="36"/>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>31</v>
       </c>
@@ -22465,7 +24173,7 @@
       </c>
       <c r="AD152" s="36"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>32</v>
       </c>
@@ -22502,7 +24210,7 @@
       </c>
       <c r="AD153" s="36"/>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>33</v>
       </c>
@@ -22546,7 +24254,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
         <v>129</v>
       </c>
@@ -22592,7 +24300,7 @@
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>62</v>
       </c>
@@ -22624,7 +24332,7 @@
         <v>43908.666666666664</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>63</v>
       </c>
@@ -22667,7 +24375,7 @@
       <c r="K157" s="27"/>
       <c r="L157" s="30"/>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>68</v>
       </c>
@@ -22704,7 +24412,7 @@
       <c r="K158" s="27"/>
       <c r="L158" s="30"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>69</v>
       </c>
@@ -22747,7 +24455,7 @@
       <c r="K159" s="27"/>
       <c r="L159" s="30"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>131</v>
       </c>
@@ -22790,7 +24498,7 @@
       <c r="K160" s="27"/>
       <c r="L160" s="30"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>132</v>
       </c>
@@ -22833,7 +24541,7 @@
       <c r="K161" s="27"/>
       <c r="L161" s="30"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>74</v>
       </c>
@@ -22867,7 +24575,7 @@
       <c r="K162" s="27"/>
       <c r="L162" s="30"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>76</v>
       </c>
@@ -22910,7 +24618,7 @@
       <c r="K163" s="28"/>
       <c r="L163" s="30"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>130</v>
       </c>
@@ -22956,7 +24664,7 @@
       <c r="N164" s="28"/>
       <c r="O164" s="27"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>77</v>
       </c>
@@ -22999,7 +24707,7 @@
       <c r="K165" s="28"/>
       <c r="L165" s="30"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>128</v>
       </c>
@@ -23045,7 +24753,7 @@
       <c r="N166" s="28"/>
       <c r="O166" s="27"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>225</v>
       </c>
@@ -23091,7 +24799,7 @@
       <c r="N167" s="28"/>
       <c r="O167" s="27"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>87</v>
       </c>
@@ -23114,7 +24822,7 @@
         <v>32.74903333333333</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B169" s="134"/>
       <c r="C169" s="134"/>
       <c r="D169" s="134"/>
@@ -23127,7 +24835,7 @@
       <c r="K169" s="134"/>
       <c r="L169" s="28"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B170" s="52" t="s">
         <v>73</v>
       </c>
@@ -23135,7 +24843,7 @@
         <v>1.2440000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
         <v>61</v>
       </c>
@@ -23148,7 +24856,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="35" t="s">
         <v>75</v>
       </c>
@@ -23169,7 +24877,7 @@
       </c>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="35">
         <v>0.4</v>
       </c>
@@ -23180,7 +24888,7 @@
       <c r="F174" s="24"/>
       <c r="G174" s="18"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="20" t="s">
         <v>70</v>
@@ -23192,7 +24900,7 @@
       </c>
       <c r="G175" s="21"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="63" t="s">
         <v>182</v>
@@ -23228,7 +24936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="64" t="s">
         <v>191</v>
@@ -23264,7 +24972,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="63" t="s">
         <v>200</v>
@@ -23306,7 +25014,7 @@
       <c r="AF178" s="43"/>
       <c r="AG178" s="43"/>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>2</v>
       </c>
@@ -23354,7 +25062,7 @@
       </c>
       <c r="AG179" s="43"/>
     </row>
-    <row r="180" spans="1:33" ht="28.15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>3</v>
       </c>
@@ -23405,7 +25113,7 @@
       </c>
       <c r="AG180" s="43"/>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>4</v>
       </c>
@@ -23425,7 +25133,7 @@
       <c r="AF181" s="43"/>
       <c r="AG181" s="43"/>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>5</v>
       </c>
@@ -23445,7 +25153,7 @@
       <c r="AF182" s="43"/>
       <c r="AG182" s="43"/>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>6</v>
       </c>
@@ -23497,7 +25205,7 @@
       </c>
       <c r="AG183" s="43"/>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>7</v>
       </c>
@@ -23549,7 +25257,7 @@
       </c>
       <c r="AG184" s="43"/>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>8</v>
       </c>
@@ -23601,7 +25309,7 @@
       </c>
       <c r="AG185" s="43"/>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>9</v>
       </c>
@@ -23653,7 +25361,7 @@
       </c>
       <c r="AG186" s="43"/>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>10</v>
       </c>
@@ -23705,7 +25413,7 @@
       </c>
       <c r="AG187" s="43"/>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>11</v>
       </c>
@@ -23757,7 +25465,7 @@
       </c>
       <c r="AG188" s="43"/>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>12</v>
       </c>
@@ -23809,7 +25517,7 @@
       </c>
       <c r="AG189" s="43"/>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>13</v>
       </c>
@@ -23861,7 +25569,7 @@
       </c>
       <c r="AG190" s="43"/>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>14</v>
       </c>
@@ -23913,7 +25621,7 @@
       </c>
       <c r="AG191" s="43"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>15</v>
       </c>
@@ -23965,7 +25673,7 @@
       </c>
       <c r="AG192" s="43"/>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>16</v>
       </c>
@@ -24017,7 +25725,7 @@
       </c>
       <c r="AG193" s="43"/>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>17</v>
       </c>
@@ -24069,7 +25777,7 @@
       </c>
       <c r="AG194" s="43"/>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>18</v>
       </c>
@@ -24121,7 +25829,7 @@
       </c>
       <c r="AG195" s="43"/>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>19</v>
       </c>
@@ -24173,7 +25881,7 @@
       </c>
       <c r="AG196" s="43"/>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>20</v>
       </c>
@@ -24225,7 +25933,7 @@
       </c>
       <c r="AG197" s="43"/>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>21</v>
       </c>
@@ -24277,7 +25985,7 @@
       </c>
       <c r="AG198" s="43"/>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>22</v>
       </c>
@@ -24329,7 +26037,7 @@
       </c>
       <c r="AG199" s="43"/>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>23</v>
       </c>
@@ -24381,7 +26089,7 @@
       </c>
       <c r="AG200" s="43"/>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>24</v>
       </c>
@@ -24433,7 +26141,7 @@
       </c>
       <c r="AG201" s="43"/>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>25</v>
       </c>
@@ -24485,7 +26193,7 @@
       </c>
       <c r="AG202" s="43"/>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>26</v>
       </c>
@@ -24537,7 +26245,7 @@
       </c>
       <c r="AG203" s="43"/>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>27</v>
       </c>
@@ -24589,7 +26297,7 @@
       </c>
       <c r="AG204" s="43"/>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>28</v>
       </c>
@@ -24641,7 +26349,7 @@
       </c>
       <c r="AG205" s="43"/>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>29</v>
       </c>
@@ -24693,7 +26401,7 @@
       </c>
       <c r="AG206" s="43"/>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>30</v>
       </c>
@@ -24745,7 +26453,7 @@
       </c>
       <c r="AG207" s="43"/>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>31</v>
       </c>
@@ -24797,7 +26505,7 @@
       </c>
       <c r="AG208" s="43"/>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>32</v>
       </c>
@@ -24849,7 +26557,7 @@
       </c>
       <c r="AG209" s="43"/>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>33</v>
       </c>
@@ -24912,7 +26620,7 @@
       </c>
       <c r="AG210" s="43"/>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
         <v>129</v>
       </c>
@@ -24961,7 +26669,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>62</v>
       </c>
@@ -24999,7 +26707,7 @@
         <v>43913.402777777781</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>63</v>
       </c>
@@ -25048,7 +26756,7 @@
         <v>19.916666666671517</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>68</v>
       </c>
@@ -25086,7 +26794,7 @@
         <v>13.292999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>69</v>
       </c>
@@ -25135,7 +26843,7 @@
         <v>74.037000000000006</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>131</v>
       </c>
@@ -25184,7 +26892,7 @@
         <v>18.805435610871221</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>132</v>
       </c>
@@ -25233,7 +26941,7 @@
         <v>17.117221234442468</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>74</v>
       </c>
@@ -25271,7 +26979,7 @@
         <v>43.265505666086703</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>76</v>
       </c>
@@ -25320,7 +27028,7 @@
         <v>4.7937216599999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>130</v>
       </c>
@@ -25369,7 +27077,7 @@
         <v>2.5363043999999998E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>77</v>
       </c>
@@ -25418,7 +27126,7 @@
         <v>2.4433066352999995</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>128</v>
       </c>
@@ -25467,7 +27175,7 @@
         <v>2.1006324328999999</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>225</v>
       </c>
@@ -25516,7 +27224,7 @@
         <v>620.60112656845297</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>87</v>
       </c>
@@ -25535,375 +27243,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="35.86328125" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="135" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="137" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="225">
-        <v>7.6133541063877139</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="220" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="220" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="220" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="96">
-        <v>1.800222568439795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="220" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="220" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="96">
-        <v>3.0002225684397952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="220" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="96">
-        <v>2.2231693745826844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="96">
-        <v>20.977743156020473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="226">
-        <v>10.668150456265302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="220" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="226">
-        <v>7.9017805475183609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="220" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="220" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="220" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="220" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="220" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="96">
-        <v>1.8677053193857109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="222" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="222" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="222" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="223" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="223" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="223" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="96">
-        <v>1.4345203650122413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="223" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="223" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="223" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="222" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="222" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="50">
-        <v>14.641442243489873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="222" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="96">
-        <v>89.83701313153793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="222" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="96">
-        <v>94.699554863120412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="222" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="96">
-        <v>133.84620520810148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="222" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="96">
-        <v>3.2699310037836629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="222" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="96">
-        <v>31.462141108390831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="222" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="96">
-        <v>73.481749387936787</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="222" t="s">
-        <v>215</v>
-      </c>
-      <c r="B42" s="96">
-        <v>147.26285332739818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="135" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="96">
-        <v>206.47429334520362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="96">
-        <v>232.96884041842861</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="50">
-        <f>SUM(B9:B44)</f>
-        <v>1085.4308924994434</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="137" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="50">
-        <v>1071.726240819052</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B46"/>
@@ -25912,22 +27251,22 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.3984375" style="134" customWidth="1"/>
+    <col min="1" max="2" width="35.42578125" style="134" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>2</v>
       </c>
@@ -25935,7 +27274,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>207</v>
       </c>
@@ -25943,22 +27282,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="137" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="220" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="220" t="s">
         <v>6</v>
       </c>
@@ -25966,7 +27305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="220" t="s">
         <v>7</v>
       </c>
@@ -25974,7 +27313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="220" t="s">
         <v>8</v>
       </c>
@@ -25982,7 +27321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="220" t="s">
         <v>9</v>
       </c>
@@ -25990,7 +27329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="220" t="s">
         <v>10</v>
       </c>
@@ -25998,7 +27337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="220" t="s">
         <v>11</v>
       </c>
@@ -26006,7 +27345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="220" t="s">
         <v>12</v>
       </c>
@@ -26014,7 +27353,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="220" t="s">
         <v>13</v>
       </c>
@@ -26022,7 +27361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="220" t="s">
         <v>14</v>
       </c>
@@ -26030,7 +27369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="220" t="s">
         <v>15</v>
       </c>
@@ -26038,7 +27377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="220" t="s">
         <v>16</v>
       </c>
@@ -26046,7 +27385,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="220" t="s">
         <v>17</v>
       </c>
@@ -26054,7 +27393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="220" t="s">
         <v>18</v>
       </c>
@@ -26062,7 +27401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="220" t="s">
         <v>19</v>
       </c>
@@ -26070,7 +27409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
         <v>20</v>
       </c>
@@ -26078,7 +27417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
         <v>21</v>
       </c>
@@ -26086,7 +27425,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="222" t="s">
         <v>22</v>
       </c>
@@ -26094,7 +27433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="222" t="s">
         <v>23</v>
       </c>
@@ -26102,7 +27441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="222" t="s">
         <v>24</v>
       </c>
@@ -26110,7 +27449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="223" t="s">
         <v>25</v>
       </c>
@@ -26118,7 +27457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="223" t="s">
         <v>26</v>
       </c>
@@ -26126,7 +27465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="223" t="s">
         <v>27</v>
       </c>
@@ -26134,7 +27473,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="223" t="s">
         <v>28</v>
       </c>
@@ -26142,7 +27481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="223" t="s">
         <v>29</v>
       </c>
@@ -26150,7 +27489,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="223" t="s">
         <v>30</v>
       </c>
@@ -26158,7 +27497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="222" t="s">
         <v>31</v>
       </c>
@@ -26166,7 +27505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="222" t="s">
         <v>32</v>
       </c>
@@ -26174,7 +27513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="222" t="s">
         <v>209</v>
       </c>
@@ -26182,7 +27521,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="222" t="s">
         <v>210</v>
       </c>
@@ -26190,7 +27529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="222" t="s">
         <v>211</v>
       </c>
@@ -26198,7 +27537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="222" t="s">
         <v>212</v>
       </c>
@@ -26206,7 +27545,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="222" t="s">
         <v>213</v>
       </c>
@@ -26214,7 +27553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="222" t="s">
         <v>214</v>
       </c>
@@ -26222,7 +27561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="222" t="s">
         <v>215</v>
       </c>
@@ -26230,7 +27569,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="135" t="s">
         <v>216</v>
       </c>
@@ -26238,7 +27577,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="135" t="s">
         <v>217</v>
       </c>
@@ -26246,7 +27585,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="137" t="s">
         <v>33</v>
       </c>
@@ -26255,7 +27594,7 @@
         <v>1255.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="137" t="s">
         <v>218</v>
       </c>
@@ -26272,27 +27611,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1328125" style="134" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="134"/>
+    <col min="1" max="1" width="35.140625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>2</v>
       </c>
@@ -26300,7 +27639,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>207</v>
       </c>
@@ -26308,22 +27647,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="137" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="220" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="220" t="s">
         <v>6</v>
       </c>
@@ -26331,7 +27670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="220" t="s">
         <v>7</v>
       </c>
@@ -26339,7 +27678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="220" t="s">
         <v>8</v>
       </c>
@@ -26347,7 +27686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="220" t="s">
         <v>9</v>
       </c>
@@ -26355,7 +27694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="220" t="s">
         <v>10</v>
       </c>
@@ -26363,7 +27702,7 @@
         <v>3.1625894299561503</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="220" t="s">
         <v>11</v>
       </c>
@@ -26371,7 +27710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="220" t="s">
         <v>12</v>
       </c>
@@ -26379,7 +27718,7 @@
         <v>4.6094622663281788</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="220" t="s">
         <v>13</v>
       </c>
@@ -26387,7 +27726,7 @@
         <v>6.6643434110316173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="220" t="s">
         <v>14</v>
       </c>
@@ -26395,7 +27734,7 @@
         <v>28.2418647588276</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="220" t="s">
         <v>15</v>
       </c>
@@ -26403,7 +27742,7 @@
         <v>9.9078698361412414</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="220" t="s">
         <v>16</v>
       </c>
@@ -26411,7 +27750,7 @@
         <v>7.2884606508192942</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="220" t="s">
         <v>17</v>
       </c>
@@ -26419,7 +27758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="220" t="s">
         <v>18</v>
       </c>
@@ -26427,7 +27766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="220" t="s">
         <v>19</v>
       </c>
@@ -26435,7 +27774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
         <v>20</v>
       </c>
@@ -26443,7 +27782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
         <v>21</v>
       </c>
@@ -26451,7 +27790,7 @@
         <v>3.1222940226171243</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="222" t="s">
         <v>22</v>
       </c>
@@ -26459,7 +27798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="222" t="s">
         <v>23</v>
       </c>
@@ -26467,7 +27806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="222" t="s">
         <v>24</v>
       </c>
@@ -26475,7 +27814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="223" t="s">
         <v>25</v>
       </c>
@@ -26483,7 +27822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="223" t="s">
         <v>26</v>
       </c>
@@ -26491,7 +27830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="223" t="s">
         <v>27</v>
       </c>
@@ -26499,7 +27838,7 @@
         <v>1.9903531040849294</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="223" t="s">
         <v>28</v>
       </c>
@@ -26507,7 +27846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="223" t="s">
         <v>29</v>
       </c>
@@ -26515,7 +27854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="223" t="s">
         <v>30</v>
       </c>
@@ -26523,7 +27862,7 @@
         <v>0.9899607662127855</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="222" t="s">
         <v>31</v>
       </c>
@@ -26531,7 +27870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="222" t="s">
         <v>32</v>
       </c>
@@ -26539,7 +27878,7 @@
         <v>38.871913224094165</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="222" t="s">
         <v>209</v>
       </c>
@@ -26547,7 +27886,7 @@
         <v>96.894530348488331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="222" t="s">
         <v>210</v>
       </c>
@@ -26555,7 +27894,7 @@
         <v>97.939303023309478</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="222" t="s">
         <v>211</v>
       </c>
@@ -26563,7 +27902,7 @@
         <v>156.64666512808677</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="222" t="s">
         <v>212</v>
       </c>
@@ -26571,7 +27910,7 @@
         <v>5.3795061158550652</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="222" t="s">
         <v>213</v>
       </c>
@@ -26579,7 +27918,7 @@
         <v>31.361181629356103</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="222" t="s">
         <v>214</v>
       </c>
@@ -26587,7 +27926,7 @@
         <v>68.690514654973455</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="222" t="s">
         <v>215</v>
       </c>
@@ -26595,7 +27934,7 @@
         <v>146.51742441726284</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="135" t="s">
         <v>216</v>
       </c>
@@ -26603,7 +27942,7 @@
         <v>226.67666743595657</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="135" t="s">
         <v>217</v>
       </c>
@@ -26611,7 +27950,7 @@
         <v>245.75121163166398</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="137" t="s">
         <v>33</v>
       </c>
@@ -26619,7 +27958,7 @@
         <v>1180.7061158550655</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="137" t="s">
         <v>218</v>
       </c>
@@ -26636,27 +27975,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1328125" style="134" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="134"/>
+    <col min="1" max="1" width="35.140625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>2</v>
       </c>
@@ -26664,7 +28003,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>207</v>
       </c>
@@ -26672,22 +28011,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="137" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="220" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="220" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="220" t="s">
         <v>6</v>
       </c>
@@ -26695,7 +28034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="220" t="s">
         <v>7</v>
       </c>
@@ -26703,7 +28042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="220" t="s">
         <v>8</v>
       </c>
@@ -26711,7 +28050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="220" t="s">
         <v>9</v>
       </c>
@@ -26719,7 +28058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="220" t="s">
         <v>10</v>
       </c>
@@ -26727,7 +28066,7 @@
         <v>3.911353334772286</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="220" t="s">
         <v>11</v>
       </c>
@@ -26735,7 +28074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="220" t="s">
         <v>12</v>
       </c>
@@ -26743,7 +28082,7 @@
         <v>9.302201597237211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="220" t="s">
         <v>13</v>
       </c>
@@ -26751,7 +28090,7 @@
         <v>16.467990502913878</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="220" t="s">
         <v>14</v>
       </c>
@@ -26759,7 +28098,7 @@
         <v>39.723289445283839</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="220" t="s">
         <v>15</v>
       </c>
@@ -26767,7 +28106,7 @@
         <v>13.582128210662638</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="220" t="s">
         <v>16</v>
       </c>
@@ -26775,7 +28114,7 @@
         <v>9.8466436434275852</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="220" t="s">
         <v>17</v>
       </c>
@@ -26783,7 +28122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="220" t="s">
         <v>18</v>
       </c>
@@ -26791,7 +28130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="220" t="s">
         <v>19</v>
       </c>
@@ -26799,7 +28138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
         <v>20</v>
       </c>
@@ -26807,7 +28146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
         <v>21</v>
       </c>
@@ -26815,7 +28154,7 @@
         <v>5.340600043168573</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="222" t="s">
         <v>22</v>
       </c>
@@ -26823,7 +28162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="222" t="s">
         <v>23</v>
       </c>
@@ -26831,7 +28170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="222" t="s">
         <v>24</v>
       </c>
@@ -26839,7 +28178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="223" t="s">
         <v>25</v>
       </c>
@@ -26847,7 +28186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="223" t="s">
         <v>26</v>
       </c>
@@ -26855,7 +28194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="223" t="s">
         <v>27</v>
       </c>
@@ -26863,7 +28202,7 @@
         <v>5.3537664580185629</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="223" t="s">
         <v>28</v>
       </c>
@@ -26871,7 +28210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="223" t="s">
         <v>29</v>
       </c>
@@ -26879,7 +28218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="223" t="s">
         <v>30</v>
       </c>
@@ -26887,7 +28226,7 @@
         <v>1.5017914957910641</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="222" t="s">
         <v>31</v>
       </c>
@@ -26895,7 +28234,7 @@
         <v>0.50628102741204406</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="222" t="s">
         <v>32</v>
       </c>
@@ -26903,7 +28242,7 @@
         <v>75.581912367796249</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="222" t="s">
         <v>209</v>
       </c>
@@ -26911,7 +28250,7 @@
         <v>113.41463414634147</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="222" t="s">
         <v>210</v>
       </c>
@@ -26919,7 +28258,7 @@
         <v>113.41463414634147</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="222" t="s">
         <v>211</v>
       </c>
@@ -26927,7 +28266,7 @@
         <v>193.40815886034966</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="222" t="s">
         <v>212</v>
       </c>
@@ -26935,7 +28274,7 @@
         <v>5.5137276063026119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="222" t="s">
         <v>213</v>
       </c>
@@ -26943,7 +28282,7 @@
         <v>36.264407511331754</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="222" t="s">
         <v>214</v>
       </c>
@@ -26951,7 +28290,7 @@
         <v>77.377940859054618</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="222" t="s">
         <v>215</v>
       </c>
@@ -26959,7 +28298,7 @@
         <v>172.64407511331748</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="135" t="s">
         <v>216</v>
       </c>
@@ -26967,7 +28306,7 @@
         <v>279.22944096697603</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="135" t="s">
         <v>217</v>
       </c>
@@ -26975,7 +28314,7 @@
         <v>268.20202892294407</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="137" t="s">
         <v>33</v>
       </c>
@@ -26983,7 +28322,7 @@
         <v>1440.966717030002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="137" t="s">
         <v>218</v>
       </c>
@@ -27000,172 +28339,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:CE134"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="11.3984375" style="134"/>
-    <col min="7" max="8" width="11.3984375" style="134"/>
-    <col min="10" max="11" width="11.3984375" style="134"/>
-    <col min="13" max="14" width="11.3984375" style="134"/>
-    <col min="16" max="17" width="11.3984375" style="134"/>
-    <col min="19" max="20" width="11.3984375" style="134"/>
-    <col min="22" max="23" width="11.3984375" style="134"/>
-    <col min="25" max="26" width="11.3984375" style="134"/>
-    <col min="28" max="29" width="11.3984375" style="134"/>
-    <col min="31" max="32" width="11.3984375" style="134"/>
-    <col min="34" max="35" width="11.3984375" style="134"/>
-    <col min="37" max="38" width="11.3984375" style="134"/>
-    <col min="40" max="41" width="11.3984375" style="134"/>
-    <col min="43" max="43" width="14.59765625" style="134" customWidth="1"/>
-    <col min="46" max="46" width="11.3984375" style="134"/>
+    <col min="4" max="5" width="11.42578125" style="134"/>
+    <col min="7" max="8" width="11.42578125" style="134"/>
+    <col min="10" max="11" width="11.42578125" style="134"/>
+    <col min="13" max="14" width="11.42578125" style="134"/>
+    <col min="16" max="17" width="11.42578125" style="134"/>
+    <col min="19" max="20" width="11.42578125" style="134"/>
+    <col min="22" max="23" width="11.42578125" style="134"/>
+    <col min="25" max="26" width="11.42578125" style="134"/>
+    <col min="28" max="29" width="11.42578125" style="134"/>
+    <col min="31" max="32" width="11.42578125" style="134"/>
+    <col min="34" max="35" width="11.42578125" style="134"/>
+    <col min="37" max="38" width="11.42578125" style="134"/>
+    <col min="40" max="41" width="11.42578125" style="134"/>
+    <col min="43" max="43" width="14.5703125" style="134" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:81" s="134" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:81" s="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:81" s="134" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="229" t="s">
+    <row r="1" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:81" s="134" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" s="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:81" s="134" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="233" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="J9" s="229" t="s">
+      <c r="J9" s="233" t="s">
         <v>260</v>
       </c>
       <c r="K9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="P9" s="229" t="s">
+      <c r="P9" s="233" t="s">
         <v>261</v>
       </c>
       <c r="Q9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="V9" s="229" t="s">
+      <c r="V9" s="233" t="s">
         <v>262</v>
       </c>
       <c r="W9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="AB9" s="229" t="s">
+      <c r="AB9" s="233" t="s">
         <v>263</v>
       </c>
       <c r="AC9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="AH9" s="229" t="s">
+      <c r="AH9" s="233" t="s">
         <v>257</v>
       </c>
       <c r="AI9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="AN9" s="229" t="s">
+      <c r="AN9" s="233" t="s">
         <v>264</v>
       </c>
       <c r="AO9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="AT9" s="229" t="s">
+      <c r="AT9" s="233" t="s">
         <v>258</v>
       </c>
       <c r="AU9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="AZ9" s="229" t="s">
+      <c r="AZ9" s="233" t="s">
         <v>303</v>
       </c>
       <c r="BA9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="BF9" s="229" t="s">
+      <c r="BF9" s="233" t="s">
         <v>266</v>
       </c>
       <c r="BG9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="BL9" s="229" t="s">
+      <c r="BL9" s="233" t="s">
         <v>267</v>
       </c>
       <c r="BM9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="BR9" s="229" t="s">
+      <c r="BR9" s="233" t="s">
         <v>268</v>
       </c>
       <c r="BS9" s="167" t="s">
         <v>278</v>
       </c>
-      <c r="BX9" s="229" t="s">
+      <c r="BX9" s="233" t="s">
         <v>269</v>
       </c>
       <c r="BY9" s="167" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="2:81" s="134" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D10" s="230"/>
+    <row r="10" spans="2:81" s="134" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="234"/>
       <c r="E10" s="77">
         <v>4.0220000000000002</v>
       </c>
-      <c r="J10" s="230"/>
+      <c r="J10" s="234"/>
       <c r="K10" s="77">
         <v>3.9531008482563617</v>
       </c>
-      <c r="P10" s="230"/>
+      <c r="P10" s="234"/>
       <c r="Q10" s="77">
         <v>3.6753006067291785</v>
       </c>
-      <c r="V10" s="230"/>
+      <c r="V10" s="234"/>
       <c r="W10" s="77">
         <v>3.9370000000000003</v>
       </c>
-      <c r="AB10" s="230"/>
+      <c r="AB10" s="234"/>
       <c r="AC10" s="77">
         <v>3.7372999999999998</v>
       </c>
-      <c r="AH10" s="230"/>
+      <c r="AH10" s="234"/>
       <c r="AI10" s="77">
         <v>3.5924</v>
       </c>
-      <c r="AN10" s="230"/>
+      <c r="AN10" s="234"/>
       <c r="AO10" s="77">
         <v>3.7109999999999999</v>
       </c>
-      <c r="AT10" s="230"/>
+      <c r="AT10" s="234"/>
       <c r="AU10" s="77">
         <v>3.7366158715273712</v>
       </c>
-      <c r="AZ10" s="230"/>
+      <c r="AZ10" s="234"/>
       <c r="BA10" s="77">
         <v>3.6843917337670065</v>
       </c>
-      <c r="BF10" s="230"/>
+      <c r="BF10" s="234"/>
       <c r="BG10" s="77">
         <v>3.5030000000000001</v>
       </c>
-      <c r="BL10" s="230"/>
+      <c r="BL10" s="234"/>
       <c r="BM10" s="77">
         <v>3.4958</v>
       </c>
-      <c r="BR10" s="230"/>
+      <c r="BR10" s="234"/>
       <c r="BS10" s="77">
         <v>3.5</v>
       </c>
-      <c r="BX10" s="230"/>
+      <c r="BX10" s="234"/>
       <c r="BY10" s="77">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:81" s="134" customFormat="1" ht="97.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:81" s="134" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="151"/>
       <c r="C11" s="174" t="s">
         <v>279</v>
@@ -27405,7 +28744,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="158" t="s">
         <v>2</v>
       </c>
@@ -27621,7 +28960,7 @@
       </c>
       <c r="CC12" s="112"/>
     </row>
-    <row r="13" spans="2:81" s="134" customFormat="1" ht="55.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:81" s="134" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="159" t="s">
         <v>207</v>
       </c>
@@ -27757,7 +29096,7 @@
       <c r="CB13" s="62"/>
       <c r="CC13" s="113"/>
     </row>
-    <row r="14" spans="2:81" s="134" customFormat="1" ht="55.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:81" s="134" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="159" t="s">
         <v>208</v>
       </c>
@@ -27893,7 +29232,7 @@
       <c r="CB14" s="62"/>
       <c r="CC14" s="113"/>
     </row>
-    <row r="15" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="158" t="s">
         <v>4</v>
       </c>
@@ -27977,7 +29316,7 @@
       <c r="CB15" s="62"/>
       <c r="CC15" s="113"/>
     </row>
-    <row r="16" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:81" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="158" t="s">
         <v>5</v>
       </c>
@@ -28061,7 +29400,7 @@
       <c r="CB16" s="62"/>
       <c r="CC16" s="113"/>
     </row>
-    <row r="17" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="160" t="s">
         <v>6</v>
       </c>
@@ -28341,7 +29680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="160" t="s">
         <v>7</v>
       </c>
@@ -28621,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="160" t="s">
         <v>8</v>
       </c>
@@ -28901,7 +30240,7 @@
         <v>9.9999999999999867E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="160" t="s">
         <v>9</v>
       </c>
@@ -29181,7 +30520,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="21" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="160" t="s">
         <v>10</v>
       </c>
@@ -29461,7 +30800,7 @@
         <v>1.3999999999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="160" t="s">
         <v>11</v>
       </c>
@@ -29741,7 +31080,7 @@
         <v>1.1000000000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="160" t="s">
         <v>12</v>
       </c>
@@ -30021,7 +31360,7 @@
         <v>5.2999999999999936</v>
       </c>
     </row>
-    <row r="24" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="160" t="s">
         <v>13</v>
       </c>
@@ -30301,7 +31640,7 @@
         <v>1.3000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="160" t="s">
         <v>14</v>
       </c>
@@ -30581,7 +31920,7 @@
         <v>3.4000000000000017</v>
       </c>
     </row>
-    <row r="26" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="161" t="s">
         <v>15</v>
       </c>
@@ -30861,7 +32200,7 @@
         <v>0.84999999999999964</v>
       </c>
     </row>
-    <row r="27" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="161" t="s">
         <v>16</v>
       </c>
@@ -31141,7 +32480,7 @@
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="28" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="162" t="s">
         <v>17</v>
       </c>
@@ -31343,7 +32682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="162" t="s">
         <v>18</v>
       </c>
@@ -31543,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="162" t="s">
         <v>19</v>
       </c>
@@ -31743,7 +33082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="162" t="s">
         <v>20</v>
       </c>
@@ -31943,7 +33282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="160" t="s">
         <v>21</v>
       </c>
@@ -32223,7 +33562,7 @@
         <v>7.5999999999999543</v>
       </c>
     </row>
-    <row r="33" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="162" t="s">
         <v>22</v>
       </c>
@@ -32423,7 +33762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="162" t="s">
         <v>23</v>
       </c>
@@ -32623,7 +33962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="162" t="s">
         <v>24</v>
       </c>
@@ -32823,7 +34162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="162" t="s">
         <v>25</v>
       </c>
@@ -33023,7 +34362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="162" t="s">
         <v>26</v>
       </c>
@@ -33223,7 +34562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="163" t="s">
         <v>27</v>
       </c>
@@ -33503,7 +34842,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="39" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="161" t="s">
         <v>28</v>
       </c>
@@ -33703,7 +35042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="161" t="s">
         <v>29</v>
       </c>
@@ -33903,7 +35242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="161" t="s">
         <v>30</v>
       </c>
@@ -34181,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="161" t="s">
         <v>31</v>
       </c>
@@ -34457,7 +35796,7 @@
         <v>9.9999999999999867E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="164" t="s">
         <v>32</v>
       </c>
@@ -34737,7 +36076,7 @@
         <v>4.2999999999999972</v>
       </c>
     </row>
-    <row r="44" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="165" t="s">
         <v>209</v>
       </c>
@@ -34988,7 +36327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="165" t="s">
         <v>210</v>
       </c>
@@ -35239,7 +36578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="165" t="s">
         <v>211</v>
       </c>
@@ -35490,7 +36829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="165" t="s">
         <v>212</v>
       </c>
@@ -35741,7 +37080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="160" t="s">
         <v>213</v>
       </c>
@@ -35992,7 +37331,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="165" t="s">
         <v>214</v>
       </c>
@@ -36243,7 +37582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="160" t="s">
         <v>215</v>
       </c>
@@ -36494,7 +37833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="160" t="s">
         <v>216</v>
       </c>
@@ -36745,7 +38084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="165" t="s">
         <v>217</v>
       </c>
@@ -36996,7 +38335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="162" t="s">
         <v>33</v>
       </c>
@@ -37244,7 +38583,7 @@
       <c r="CB53" s="76"/>
       <c r="CC53" s="189"/>
     </row>
-    <row r="54" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="162" t="s">
         <v>259</v>
       </c>
@@ -37441,7 +38780,7 @@
       <c r="CB54" s="76"/>
       <c r="CC54" s="189"/>
     </row>
-    <row r="55" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="162" t="s">
         <v>218</v>
       </c>
@@ -37577,7 +38916,7 @@
       <c r="CB55" s="62"/>
       <c r="CC55" s="189"/>
     </row>
-    <row r="56" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="162" t="s">
         <v>283</v>
       </c>
@@ -37883,7 +39222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="162" t="s">
         <v>284</v>
       </c>
@@ -38189,7 +39528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="162" t="s">
         <v>292</v>
       </c>
@@ -38468,7 +39807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="162" t="s">
         <v>275</v>
       </c>
@@ -38630,7 +39969,7 @@
       <c r="CB59" s="62"/>
       <c r="CC59" s="113"/>
     </row>
-    <row r="60" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="162" t="s">
         <v>276</v>
       </c>
@@ -38753,7 +40092,7 @@
       <c r="CB60" s="62"/>
       <c r="CC60" s="113"/>
     </row>
-    <row r="61" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="162" t="s">
         <v>277</v>
       </c>
@@ -38876,7 +40215,7 @@
       <c r="CB61" s="62"/>
       <c r="CC61" s="113"/>
     </row>
-    <row r="62" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="162" t="s">
         <v>281</v>
       </c>
@@ -38999,7 +40338,7 @@
       <c r="CB62" s="62"/>
       <c r="CC62" s="113"/>
     </row>
-    <row r="63" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:83" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="162" t="s">
         <v>282</v>
       </c>
@@ -39122,7 +40461,7 @@
       <c r="CB63" s="78"/>
       <c r="CC63" s="181"/>
     </row>
-    <row r="64" spans="2:83" s="134" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:83" s="134" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="166" t="s">
         <v>280</v>
       </c>
@@ -39208,96 +40547,96 @@
       <c r="CB64" s="121"/>
       <c r="CC64" s="122"/>
     </row>
-    <row r="65" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="66" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="67" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="69" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="70" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="71" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="134" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="81" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="65" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C81" s="134"/>
-      <c r="D81" s="235" t="s">
+      <c r="D81" s="229" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="236"/>
-      <c r="F81" s="237"/>
-      <c r="G81" s="235" t="s">
+      <c r="E81" s="230"/>
+      <c r="F81" s="231"/>
+      <c r="G81" s="229" t="s">
         <v>260</v>
       </c>
-      <c r="H81" s="236"/>
-      <c r="I81" s="237"/>
-      <c r="J81" s="235" t="s">
+      <c r="H81" s="230"/>
+      <c r="I81" s="231"/>
+      <c r="J81" s="229" t="s">
         <v>261</v>
       </c>
-      <c r="K81" s="236"/>
-      <c r="L81" s="237"/>
-      <c r="M81" s="235" t="s">
+      <c r="K81" s="230"/>
+      <c r="L81" s="231"/>
+      <c r="M81" s="229" t="s">
         <v>262</v>
       </c>
-      <c r="N81" s="236"/>
-      <c r="O81" s="237"/>
-      <c r="P81" s="235" t="s">
+      <c r="N81" s="230"/>
+      <c r="O81" s="231"/>
+      <c r="P81" s="229" t="s">
         <v>257</v>
       </c>
-      <c r="Q81" s="236"/>
-      <c r="R81" s="237"/>
-      <c r="S81" s="235" t="s">
+      <c r="Q81" s="230"/>
+      <c r="R81" s="231"/>
+      <c r="S81" s="229" t="s">
         <v>264</v>
       </c>
-      <c r="T81" s="236"/>
-      <c r="U81" s="237"/>
-      <c r="V81" s="235" t="s">
+      <c r="T81" s="230"/>
+      <c r="U81" s="231"/>
+      <c r="V81" s="229" t="s">
         <v>258</v>
       </c>
-      <c r="W81" s="236"/>
-      <c r="X81" s="237" t="s">
+      <c r="W81" s="230"/>
+      <c r="X81" s="231" t="s">
         <v>264</v>
       </c>
-      <c r="Y81" s="235" t="s">
+      <c r="Y81" s="229" t="s">
         <v>303</v>
       </c>
-      <c r="Z81" s="236"/>
-      <c r="AA81" s="237" t="s">
+      <c r="Z81" s="230"/>
+      <c r="AA81" s="231" t="s">
         <v>258</v>
       </c>
-      <c r="AB81" s="235" t="s">
+      <c r="AB81" s="229" t="s">
         <v>266</v>
       </c>
-      <c r="AC81" s="236"/>
-      <c r="AD81" s="237" t="s">
+      <c r="AC81" s="230"/>
+      <c r="AD81" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="AE81" s="235" t="s">
+      <c r="AE81" s="229" t="s">
         <v>267</v>
       </c>
-      <c r="AF81" s="236"/>
-      <c r="AG81" s="237" t="s">
+      <c r="AF81" s="230"/>
+      <c r="AG81" s="231" t="s">
         <v>266</v>
       </c>
-      <c r="AH81" s="235" t="s">
+      <c r="AH81" s="229" t="s">
         <v>268</v>
       </c>
-      <c r="AI81" s="236"/>
-      <c r="AJ81" s="237" t="s">
+      <c r="AI81" s="230"/>
+      <c r="AJ81" s="231" t="s">
         <v>267</v>
       </c>
-      <c r="AK81" s="235" t="s">
+      <c r="AK81" s="229" t="s">
         <v>269</v>
       </c>
-      <c r="AL81" s="236"/>
-      <c r="AM81" s="237" t="s">
+      <c r="AL81" s="230"/>
+      <c r="AM81" s="231" t="s">
         <v>268</v>
       </c>
-      <c r="AN81" s="232"/>
-      <c r="AO81" s="233"/>
-      <c r="AP81" s="234" t="s">
+      <c r="AN81" s="235"/>
+      <c r="AO81" s="236"/>
+      <c r="AP81" s="237" t="s">
         <v>269</v>
       </c>
       <c r="AQ81" s="196"/>
@@ -39327,7 +40666,7 @@
       <c r="BF81" s="110"/>
       <c r="BG81" s="120"/>
     </row>
-    <row r="82" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C82" s="102" t="s">
         <v>2</v>
       </c>
@@ -39431,7 +40770,7 @@
       <c r="BF82" s="187"/>
       <c r="BG82" s="112"/>
     </row>
-    <row r="83" spans="2:59" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:59" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="103"/>
       <c r="D83" s="205" t="s">
         <v>306</v>
@@ -39561,7 +40900,7 @@
       <c r="BF83" s="62"/>
       <c r="BG83" s="113"/>
     </row>
-    <row r="84" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C84" s="103"/>
       <c r="D84" s="205"/>
       <c r="E84" s="137"/>
@@ -39619,7 +40958,7 @@
       <c r="BF84" s="62"/>
       <c r="BG84" s="113"/>
     </row>
-    <row r="85" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C85" s="102" t="s">
         <v>4</v>
       </c>
@@ -39679,7 +41018,7 @@
       <c r="BF85" s="62"/>
       <c r="BG85" s="113"/>
     </row>
-    <row r="86" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C86" s="102" t="s">
         <v>5</v>
       </c>
@@ -39742,7 +41081,7 @@
       <c r="BF86" s="62"/>
       <c r="BG86" s="113"/>
     </row>
-    <row r="87" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B87" s="50">
         <f>MAX(I87,L87,O87)</f>
         <v>-0.13900421640843375</v>
@@ -39914,7 +41253,7 @@
       <c r="BF87" s="132"/>
       <c r="BG87" s="145"/>
     </row>
-    <row r="88" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B88" s="50">
         <f t="shared" ref="B88:B113" si="117">MAX(F88,I88,L88,O88)</f>
         <v>0.46900322943502815</v>
@@ -40086,7 +41425,7 @@
       <c r="BF88" s="132"/>
       <c r="BG88" s="145"/>
     </row>
-    <row r="89" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B89" s="50">
         <f t="shared" si="117"/>
         <v>1.0098732174607186</v>
@@ -40258,7 +41597,7 @@
       <c r="BF89" s="132"/>
       <c r="BG89" s="145"/>
     </row>
-    <row r="90" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B90" s="50">
         <f t="shared" si="117"/>
         <v>-0.46277644326717571</v>
@@ -40430,7 +41769,7 @@
       <c r="BF90" s="132"/>
       <c r="BG90" s="145"/>
     </row>
-    <row r="91" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B91" s="50">
         <f t="shared" si="117"/>
         <v>3.2726748631296303</v>
@@ -40602,7 +41941,7 @@
       <c r="BF91" s="132"/>
       <c r="BG91" s="145"/>
     </row>
-    <row r="92" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B92" s="50">
         <f t="shared" si="117"/>
         <v>-2.4063875276375626</v>
@@ -40774,7 +42113,7 @@
       <c r="BF92" s="132"/>
       <c r="BG92" s="145"/>
     </row>
-    <row r="93" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B93" s="50">
         <f>MAX(F93,I93,L93,O93)</f>
         <v>29.400561116813378</v>
@@ -40946,7 +42285,7 @@
       <c r="BF93" s="132"/>
       <c r="BG93" s="145"/>
     </row>
-    <row r="94" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B94" s="50">
         <f t="shared" si="117"/>
         <v>-13.396222639798122</v>
@@ -41118,7 +42457,7 @@
       <c r="BF94" s="132"/>
       <c r="BG94" s="145"/>
     </row>
-    <row r="95" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B95" s="50">
         <f t="shared" si="117"/>
         <v>-23.645258941812934</v>
@@ -41290,7 +42629,7 @@
       <c r="BF95" s="132"/>
       <c r="BG95" s="145"/>
     </row>
-    <row r="96" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B96" s="50">
         <f t="shared" si="117"/>
         <v>-3.295279807286732</v>
@@ -41462,7 +42801,7 @@
       <c r="BF96" s="133"/>
       <c r="BG96" s="146"/>
     </row>
-    <row r="97" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B97" s="50">
         <f t="shared" si="117"/>
         <v>-2.2317312867222756</v>
@@ -41634,7 +42973,7 @@
       <c r="BF97" s="133"/>
       <c r="BG97" s="146"/>
     </row>
-    <row r="98" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B98" s="50">
         <f t="shared" si="117"/>
         <v>0.2671604013208026</v>
@@ -41790,7 +43129,7 @@
       <c r="BF98" s="133"/>
       <c r="BG98" s="146"/>
     </row>
-    <row r="99" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B99" s="50">
         <f t="shared" si="117"/>
         <v>9.2237744475488943E-3</v>
@@ -41944,7 +43283,7 @@
       <c r="BF99" s="133"/>
       <c r="BG99" s="146"/>
     </row>
-    <row r="100" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B100" s="50">
         <f t="shared" si="117"/>
         <v>6.8177927355854706E-2</v>
@@ -42098,7 +43437,7 @@
       <c r="BF100" s="133"/>
       <c r="BG100" s="146"/>
     </row>
-    <row r="101" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B101" s="50">
         <f t="shared" si="117"/>
         <v>0.37022392684785371</v>
@@ -42252,7 +43591,7 @@
       <c r="BF101" s="133"/>
       <c r="BG101" s="146"/>
     </row>
-    <row r="102" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B102" s="50">
         <f t="shared" si="117"/>
         <v>-10.883789811325471</v>
@@ -42424,7 +43763,7 @@
       <c r="BF102" s="132"/>
       <c r="BG102" s="145"/>
     </row>
-    <row r="103" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B103" s="50">
         <f t="shared" si="117"/>
         <v>0.17169658874916319</v>
@@ -42578,7 +43917,7 @@
       <c r="BF103" s="133"/>
       <c r="BG103" s="146"/>
     </row>
-    <row r="104" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B104" s="50">
         <f t="shared" si="117"/>
         <v>1.4469564721490186E-3</v>
@@ -42732,7 +44071,7 @@
       <c r="BF104" s="133"/>
       <c r="BG104" s="146"/>
     </row>
-    <row r="105" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B105" s="50">
         <f t="shared" si="117"/>
         <v>1.5376283665217058E-2</v>
@@ -42886,7 +44225,7 @@
       <c r="BF105" s="133"/>
       <c r="BG105" s="146"/>
     </row>
-    <row r="106" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B106" s="50">
         <f t="shared" si="117"/>
         <v>0.16737145034290069</v>
@@ -43040,7 +44379,7 @@
       <c r="BF106" s="133"/>
       <c r="BG106" s="146"/>
     </row>
-    <row r="107" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B107" s="50">
         <f t="shared" si="117"/>
         <v>0.42483261366522734</v>
@@ -43194,7 +44533,7 @@
       <c r="BF107" s="133"/>
       <c r="BG107" s="146"/>
     </row>
-    <row r="108" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B108" s="50">
         <f t="shared" si="117"/>
         <v>3.1456929567352248</v>
@@ -43366,7 +44705,7 @@
       <c r="BF108" s="132"/>
       <c r="BG108" s="145"/>
     </row>
-    <row r="109" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B109" s="50">
         <f t="shared" si="117"/>
         <v>1.1627381254762511E-3</v>
@@ -43520,7 +44859,7 @@
       <c r="BF109" s="133"/>
       <c r="BG109" s="146"/>
     </row>
-    <row r="110" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B110" s="50">
         <f t="shared" si="117"/>
         <v>0.50911074422148839</v>
@@ -43674,7 +45013,7 @@
       <c r="BF110" s="133"/>
       <c r="BG110" s="146"/>
     </row>
-    <row r="111" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B111" s="50">
         <f t="shared" si="117"/>
         <v>2.4995328596983528</v>
@@ -43846,7 +45185,7 @@
       <c r="BF111" s="133"/>
       <c r="BG111" s="146"/>
     </row>
-    <row r="112" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B112" s="50">
         <f t="shared" si="117"/>
         <v>0.34566287408445895</v>
@@ -44016,7 +45355,7 @@
       <c r="BF112" s="133"/>
       <c r="BG112" s="146"/>
     </row>
-    <row r="113" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B113" s="50">
         <f t="shared" si="117"/>
         <v>-42.609375414779322</v>
@@ -44188,7 +45527,7 @@
       <c r="BF113" s="133"/>
       <c r="BG113" s="146"/>
     </row>
-    <row r="114" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B114" s="50">
         <f>MAX(D114,G114,J114,M114)</f>
         <v>-13.33701313153793</v>
@@ -44275,7 +45614,7 @@
         <v>9.5805326446227888</v>
       </c>
     </row>
-    <row r="115" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B115" s="50">
         <f t="shared" ref="B115:B122" si="137">MAX(D115,G115,J115,M115)</f>
         <v>-12.53288819645374</v>
@@ -44362,7 +45701,7 @@
         <v>7.8718636349253277</v>
       </c>
     </row>
-    <row r="116" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B116" s="50">
         <f t="shared" si="137"/>
         <v>-18.84620520810148</v>
@@ -44449,7 +45788,7 @@
         <v>22.740691040812983</v>
       </c>
     </row>
-    <row r="117" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B117" s="50">
         <f t="shared" si="137"/>
         <v>4.3967356628830041</v>
@@ -44536,7 +45875,7 @@
         <v>0.90489614346668845</v>
       </c>
     </row>
-    <row r="118" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B118" s="50">
         <f t="shared" si="137"/>
         <v>0.80548503731056087</v>
@@ -44623,7 +45962,7 @@
         <v>2.030950085421166</v>
       </c>
     </row>
-    <row r="119" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B119" s="50">
         <f t="shared" si="137"/>
         <v>48.642818678359873</v>
@@ -44710,7 +46049,7 @@
         <v>3.1192761047077013</v>
       </c>
     </row>
-    <row r="120" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B120" s="50">
         <f t="shared" si="137"/>
         <v>9.4825755827371552</v>
@@ -44797,7 +46136,7 @@
         <v>10.698280660270104</v>
       </c>
     </row>
-    <row r="121" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B121" s="50">
         <f t="shared" si="137"/>
         <v>12.192373321463037</v>
@@ -44884,7 +46223,7 @@
         <v>28.293615220733553</v>
       </c>
     </row>
-    <row r="122" spans="2:59" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="50">
         <f t="shared" si="137"/>
         <v>131.19782624823799</v>
@@ -44971,40 +46310,40 @@
         <v>13.19723896014418</v>
       </c>
     </row>
-    <row r="123" spans="2:59" x14ac:dyDescent="0.45">
-      <c r="G123" s="231"/>
-      <c r="H123" s="231"/>
-      <c r="I123" s="231"/>
-      <c r="J123" s="231"/>
-      <c r="K123" s="231"/>
-      <c r="L123" s="231"/>
-      <c r="M123" s="231"/>
-      <c r="N123" s="231"/>
-      <c r="O123" s="231"/>
-      <c r="P123" s="231"/>
-      <c r="Q123" s="231"/>
-      <c r="R123" s="231"/>
-      <c r="S123" s="231"/>
-      <c r="T123" s="231"/>
-      <c r="U123" s="231"/>
-      <c r="V123" s="231"/>
-      <c r="W123" s="231"/>
-      <c r="X123" s="231"/>
-      <c r="Y123" s="231"/>
-      <c r="Z123" s="231"/>
-      <c r="AA123" s="231"/>
-      <c r="AB123" s="231"/>
-      <c r="AC123" s="231"/>
-      <c r="AD123" s="231"/>
-      <c r="AE123" s="231"/>
-      <c r="AF123" s="231"/>
-      <c r="AG123" s="231"/>
-      <c r="AH123" s="231"/>
-      <c r="AI123" s="231"/>
-      <c r="AJ123" s="231"/>
-      <c r="AK123" s="231"/>
-      <c r="AL123" s="231"/>
-      <c r="AM123" s="231"/>
+    <row r="123" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="G123" s="232"/>
+      <c r="H123" s="232"/>
+      <c r="I123" s="232"/>
+      <c r="J123" s="232"/>
+      <c r="K123" s="232"/>
+      <c r="L123" s="232"/>
+      <c r="M123" s="232"/>
+      <c r="N123" s="232"/>
+      <c r="O123" s="232"/>
+      <c r="P123" s="232"/>
+      <c r="Q123" s="232"/>
+      <c r="R123" s="232"/>
+      <c r="S123" s="232"/>
+      <c r="T123" s="232"/>
+      <c r="U123" s="232"/>
+      <c r="V123" s="232"/>
+      <c r="W123" s="232"/>
+      <c r="X123" s="232"/>
+      <c r="Y123" s="232"/>
+      <c r="Z123" s="232"/>
+      <c r="AA123" s="232"/>
+      <c r="AB123" s="232"/>
+      <c r="AC123" s="232"/>
+      <c r="AD123" s="232"/>
+      <c r="AE123" s="232"/>
+      <c r="AF123" s="232"/>
+      <c r="AG123" s="232"/>
+      <c r="AH123" s="232"/>
+      <c r="AI123" s="232"/>
+      <c r="AJ123" s="232"/>
+      <c r="AK123" s="232"/>
+      <c r="AL123" s="232"/>
+      <c r="AM123" s="232"/>
       <c r="AN123" s="86"/>
       <c r="AO123" s="86"/>
       <c r="AP123" s="86"/>
@@ -45015,7 +46354,7 @@
       <c r="AS123" s="150"/>
       <c r="AU123" s="128"/>
     </row>
-    <row r="124" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G124" s="74"/>
       <c r="H124" s="74"/>
       <c r="I124" s="74"/>
@@ -45055,7 +46394,7 @@
       <c r="AQ124" s="86"/>
       <c r="AR124" s="86"/>
     </row>
-    <row r="125" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G125" s="215"/>
       <c r="H125" s="215"/>
       <c r="I125" s="215"/>
@@ -45115,7 +46454,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G126" s="215"/>
       <c r="H126" s="215"/>
       <c r="I126" s="86"/>
@@ -45181,7 +46520,7 @@
         <v>24.722931226703487</v>
       </c>
     </row>
-    <row r="127" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G127" s="82"/>
       <c r="H127" s="82"/>
       <c r="I127" s="86"/>
@@ -45247,7 +46586,7 @@
         <v>18.727611828981331</v>
       </c>
     </row>
-    <row r="128" spans="2:59" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G128" s="82"/>
       <c r="H128" s="82"/>
       <c r="I128" s="86"/>
@@ -45313,7 +46652,7 @@
         <v>48.639896385133284</v>
       </c>
     </row>
-    <row r="129" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="129" spans="7:51" x14ac:dyDescent="0.25">
       <c r="G129" s="216"/>
       <c r="H129" s="216"/>
       <c r="I129" s="138"/>
@@ -45379,7 +46718,7 @@
         <v>1.0820719764608948</v>
       </c>
     </row>
-    <row r="130" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="130" spans="7:51" x14ac:dyDescent="0.25">
       <c r="G130" s="86"/>
       <c r="H130" s="86"/>
       <c r="I130" s="86"/>
@@ -45445,7 +46784,7 @@
         <v>4.420854365901369</v>
       </c>
     </row>
-    <row r="131" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="131" spans="7:51" x14ac:dyDescent="0.25">
       <c r="G131" s="86"/>
       <c r="H131" s="86"/>
       <c r="I131" s="86"/>
@@ -45511,7 +46850,7 @@
         <v>5.0453816107453946</v>
       </c>
     </row>
-    <row r="132" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="132" spans="7:51" x14ac:dyDescent="0.25">
       <c r="G132" s="86"/>
       <c r="H132" s="86"/>
       <c r="I132" s="86"/>
@@ -45577,7 +46916,7 @@
         <v>16.199986766487736</v>
       </c>
     </row>
-    <row r="133" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="133" spans="7:51" x14ac:dyDescent="0.25">
       <c r="AR133">
         <v>1190</v>
       </c>
@@ -45606,7 +46945,7 @@
         <v>30.364992041968044</v>
       </c>
     </row>
-    <row r="134" spans="7:51" x14ac:dyDescent="0.45">
+    <row r="134" spans="7:51" x14ac:dyDescent="0.25">
       <c r="AR134">
         <v>1204</v>
       </c>
@@ -45637,32 +46976,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="J81:L81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="V123:X123"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AD123"/>
-    <mergeCell ref="AE123:AG123"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="Y81:AA81"/>
-    <mergeCell ref="AB81:AD81"/>
-    <mergeCell ref="AE81:AG81"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:R123"/>
-    <mergeCell ref="S123:U123"/>
-    <mergeCell ref="AH123:AJ123"/>
-    <mergeCell ref="AK123:AM123"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AZ9:AZ10"/>
-    <mergeCell ref="AN81:AP81"/>
-    <mergeCell ref="AH81:AJ81"/>
-    <mergeCell ref="AK81:AM81"/>
     <mergeCell ref="BF9:BF10"/>
     <mergeCell ref="BL9:BL10"/>
     <mergeCell ref="BR9:BR10"/>
@@ -45674,6 +46987,32 @@
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AH123:AJ123"/>
+    <mergeCell ref="AK123:AM123"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AZ9:AZ10"/>
+    <mergeCell ref="AN81:AP81"/>
+    <mergeCell ref="AH81:AJ81"/>
+    <mergeCell ref="AK81:AM81"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:R123"/>
+    <mergeCell ref="S123:U123"/>
+    <mergeCell ref="V123:X123"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AD123"/>
+    <mergeCell ref="AE123:AG123"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="AB81:AD81"/>
+    <mergeCell ref="AE81:AG81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="P81:R81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
